--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,193 +52,199 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
     <t>2025-03-27</t>
   </si>
   <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
   </si>
   <si>
     <t>2025-04-21</t>
   </si>
   <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>54%</t>
   </si>
   <si>
     <t>59%</t>
   </si>
   <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>34%</t>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>39%</t>
   </si>
   <si>
     <t>0%</t>
@@ -268,25 +274,34 @@
     <t>28%</t>
   </si>
   <si>
-    <t>20%</t>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>18%</t>
   </si>
   <si>
     <t>14%</t>
   </si>
   <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
     <t>16%</t>
   </si>
   <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>6%</t>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>5%</t>
   </si>
   <si>
     <t>78%</t>
@@ -316,46 +331,34 @@
     <t>83%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>69%</t>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>38%</t>
   </si>
   <si>
     <t>36%</t>
   </si>
   <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
     <t>40%</t>
   </si>
   <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
     <t>31%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>17%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -768,25 +771,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D2">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="E2">
-        <v>4260</v>
+        <v>4465</v>
       </c>
       <c r="F2">
-        <v>36848286.88</v>
+        <v>42539047.94</v>
       </c>
       <c r="G2">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
       <c r="H2">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="I2">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -797,25 +800,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D3">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E3">
-        <v>5549</v>
+        <v>5398</v>
       </c>
       <c r="F3">
-        <v>53300033.76</v>
+        <v>85048725.39</v>
       </c>
       <c r="G3">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
       <c r="H3">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="I3">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -826,25 +829,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D4">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E4">
-        <v>5405</v>
+        <v>5044</v>
       </c>
       <c r="F4">
-        <v>85016965.09</v>
+        <v>70229609.49000001</v>
       </c>
       <c r="G4">
-        <v>74919650.95</v>
+        <v>63034077.31</v>
       </c>
       <c r="H4">
-        <v>4705982.4</v>
+        <v>2102749.11</v>
       </c>
       <c r="I4">
-        <v>3864410.1828</v>
+        <v>1335913.592</v>
       </c>
     </row>
   </sheetData>
@@ -897,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D2">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="E2">
-        <v>4260</v>
+        <v>4465</v>
       </c>
       <c r="F2">
-        <v>36848286.88</v>
+        <v>42539047.94</v>
       </c>
       <c r="G2">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
       <c r="H2">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="I2">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -926,25 +929,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D3">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E3">
-        <v>5549</v>
+        <v>5398</v>
       </c>
       <c r="F3">
-        <v>53300033.76</v>
+        <v>85048725.39</v>
       </c>
       <c r="G3">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
       <c r="H3">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="I3">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -955,25 +958,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D4">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E4">
-        <v>5405</v>
+        <v>5044</v>
       </c>
       <c r="F4">
-        <v>85016965.09</v>
+        <v>70229609.49000001</v>
       </c>
       <c r="G4">
-        <v>74919650.95</v>
+        <v>63034077.31</v>
       </c>
       <c r="H4">
-        <v>4705982.4</v>
+        <v>2102749.11</v>
       </c>
       <c r="I4">
-        <v>3864410.1828</v>
+        <v>1335913.592</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2384763.42</v>
+        <v>-1676502.54</v>
       </c>
       <c r="D2">
-        <v>1695639.1048</v>
+        <v>-1790650.1148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1025,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>-1676502.54</v>
+        <v>330865.61</v>
       </c>
       <c r="D3">
-        <v>-1790650.1148</v>
+        <v>-78851.16520000005</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1039,10 +1042,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>330865.61</v>
+        <v>-425637.0499999999</v>
       </c>
       <c r="D4">
-        <v>-78851.16520000005</v>
+        <v>-819049.4267999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1053,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>-425637.0499999999</v>
+        <v>1898079.43</v>
       </c>
       <c r="D5">
-        <v>-819049.4267999999</v>
+        <v>1350258.9056</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1067,10 +1070,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1898079.43</v>
+        <v>-61972.53000000003</v>
       </c>
       <c r="D6">
-        <v>1350258.9056</v>
+        <v>-526833.2760000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1081,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D7">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1095,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4705982.4</v>
+        <v>2102749.11</v>
       </c>
       <c r="D8">
-        <v>3864410.1828</v>
+        <v>1335913.592</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1109,10 +1112,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3388711.52</v>
+        <v>797577.95</v>
       </c>
       <c r="D9">
-        <v>2810354.206800001</v>
+        <v>360650.5151999998</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1123,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>797577.95</v>
+        <v>1689971.38</v>
       </c>
       <c r="D10">
-        <v>360650.5151999998</v>
+        <v>1193091.4624</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1137,10 +1140,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>1689971.38</v>
+        <v>1355629.2</v>
       </c>
       <c r="D11">
-        <v>1193091.4624</v>
+        <v>1024836.8764</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1151,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1355629.2</v>
+        <v>1465508.45</v>
       </c>
       <c r="D12">
-        <v>1024836.8764</v>
+        <v>978364.8547999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1165,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>1465508.45</v>
+        <v>865379</v>
       </c>
       <c r="D13">
-        <v>978364.8547999999</v>
+        <v>530732.9375999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1179,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D14">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1193,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D15">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
   </sheetData>
@@ -1234,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9918175.310000001</v>
+        <v>8092743.26</v>
       </c>
       <c r="D2">
-        <v>3082</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1248,10 +1251,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>8092743.26</v>
+        <v>8911073.800000001</v>
       </c>
       <c r="D3">
-        <v>3122</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1262,10 +1265,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8911073.800000001</v>
+        <v>8562704.77</v>
       </c>
       <c r="D4">
-        <v>3313</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1276,10 +1279,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>8562704.77</v>
+        <v>9255136.470000001</v>
       </c>
       <c r="D5">
-        <v>3174</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1290,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>9255136.470000001</v>
+        <v>8703393.859999999</v>
       </c>
       <c r="D6">
-        <v>3285</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1304,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D7">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1318,10 +1321,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D8">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1332,10 +1335,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>9503136.25</v>
+        <v>7519739.550000001</v>
       </c>
       <c r="D9">
-        <v>2801</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1346,10 +1349,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7519739.550000001</v>
+        <v>8824615.6</v>
       </c>
       <c r="D10">
-        <v>2795</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1360,10 +1363,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>8824615.6</v>
+        <v>7784083.02</v>
       </c>
       <c r="D11">
-        <v>2939</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1374,10 +1377,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7784083.02</v>
+        <v>7546488.99</v>
       </c>
       <c r="D12">
-        <v>2904</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1388,10 +1391,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>7546488.99</v>
+        <v>6488938.75</v>
       </c>
       <c r="D13">
-        <v>3119</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1402,10 +1405,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D14">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1416,10 +1419,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D15">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>63723794.43</v>
+        <v>58018840.53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1465,7 +1468,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>58018840.53</v>
+        <v>60677874.25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1476,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>60677874.25</v>
+        <v>48803307.53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1487,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>48803307.53</v>
+        <v>108203265.67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1498,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>108203265.67</v>
+        <v>46720706.42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1509,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1520,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>74919650.95</v>
+        <v>63034077.31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1531,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>43100564.66</v>
+        <v>41161888.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1542,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>41161888.8</v>
+        <v>46286819.34999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1553,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>46286819.34999999</v>
+        <v>37211262.3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1564,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>37211262.3</v>
+        <v>36705462.48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1575,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>36705462.48</v>
+        <v>33625066.98</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1586,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1597,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1641,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="D2">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1655,10 +1658,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="D3">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1672,10 +1675,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="D4">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1689,13 +1692,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="D5">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1706,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="D6">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1723,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D7">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1740,10 +1743,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D8">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -1784,10 +1787,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>158413.55</v>
+        <v>137692.63</v>
       </c>
       <c r="D2">
-        <v>325170.95</v>
+        <v>325505.68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1798,10 +1801,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>137692.63</v>
+        <v>144947.94</v>
       </c>
       <c r="D3">
-        <v>325505.68</v>
+        <v>293347.77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1812,10 +1815,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>144947.94</v>
+        <v>189120.67</v>
       </c>
       <c r="D4">
-        <v>293347.77</v>
+        <v>307398.32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1826,10 +1829,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>189120.67</v>
+        <v>123471.91</v>
       </c>
       <c r="D5">
-        <v>307398.32</v>
+        <v>250870.85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1840,10 +1843,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>123471.91</v>
+        <v>254892.05</v>
       </c>
       <c r="D6">
-        <v>250870.85</v>
+        <v>351732.41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1854,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D7">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1868,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D8">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1882,10 +1885,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>87510.64999999999</v>
+        <v>218829.19</v>
       </c>
       <c r="D9">
-        <v>194932.86</v>
+        <v>201931.07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1896,10 +1899,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>218829.19</v>
+        <v>125028.88</v>
       </c>
       <c r="D10">
-        <v>201931.07</v>
+        <v>197733.98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1910,10 +1913,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>125028.88</v>
+        <v>130522.19</v>
       </c>
       <c r="D11">
-        <v>197733.98</v>
+        <v>241393.46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1924,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>130522.19</v>
+        <v>161217.18</v>
       </c>
       <c r="D12">
-        <v>241393.46</v>
+        <v>189340.91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1938,10 +1941,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>161217.18</v>
+        <v>104141.51</v>
       </c>
       <c r="D13">
-        <v>189340.91</v>
+        <v>170479.79</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1952,10 +1955,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D14">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1966,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D15">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2010,10 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2021,10 +2024,10 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2035,10 +2038,10 @@
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,10 +2052,10 @@
         <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2060,13 +2063,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2074,13 +2077,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2088,13 +2091,13 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2102,13 +2105,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2116,13 +2119,13 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2130,13 +2133,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2144,13 +2147,13 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2158,13 +2161,13 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2175,10 +2178,10 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2186,13 +2189,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2200,13 +2203,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2214,13 +2217,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2228,13 +2231,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2242,13 +2245,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2256,13 +2259,13 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2270,13 +2273,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2284,13 +2287,13 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2298,13 +2301,13 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2315,10 +2318,10 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2326,13 +2329,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2340,13 +2343,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2354,13 +2357,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2368,13 +2371,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2382,13 +2385,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2396,13 +2399,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2410,13 +2413,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2451,13 +2454,13 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2465,13 +2468,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2479,13 +2482,13 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2493,13 +2496,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2507,13 +2510,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2521,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2535,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2549,13 +2552,13 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2563,13 +2566,13 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2577,13 +2580,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2591,13 +2594,13 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2605,13 +2608,13 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2622,10 +2625,10 @@
         <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2633,13 +2636,13 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2647,13 +2650,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2661,13 +2664,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2675,13 +2678,13 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2689,13 +2692,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2703,13 +2706,13 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2717,13 +2720,13 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2731,13 +2734,13 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2745,13 +2748,13 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2759,13 +2762,13 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2773,13 +2776,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2787,13 +2790,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2801,13 +2804,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2815,13 +2818,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2829,13 +2832,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2843,13 +2846,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2857,13 +2860,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2881,16 +2884,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2904,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2918,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2932,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2946,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2960,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2974,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2988,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3002,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3016,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3030,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3044,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3058,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3072,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3086,7 +3089,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3100,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3114,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3128,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3142,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3156,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3170,7 +3173,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3184,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3198,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3212,7 +3215,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3226,7 +3229,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3240,7 +3243,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>196</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3254,7 +3257,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3268,7 +3271,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>476</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3277,6 +3280,12 @@
       </c>
       <c r="B29">
         <v>114</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="121">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,180 +52,183 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
     <t>2025-03-28</t>
   </si>
   <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
   </si>
   <si>
     <t>2025-04-22</t>
   </si>
   <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>52%</t>
   </si>
   <si>
     <t>57%</t>
   </si>
   <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
     <t>56%</t>
   </si>
   <si>
@@ -241,124 +244,136 @@
     <t>53%</t>
   </si>
   <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
     <t>42%</t>
   </si>
   <si>
     <t>39%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
+    <t>31%</t>
   </si>
   <si>
     <t>27%</t>
   </si>
   <si>
-    <t>17%</t>
+    <t>20%</t>
   </si>
   <si>
     <t>13%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>31%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -771,25 +786,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="D2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="E2">
-        <v>4465</v>
+        <v>4833</v>
       </c>
       <c r="F2">
-        <v>42539047.94</v>
+        <v>45388555.54000001</v>
       </c>
       <c r="G2">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
       <c r="H2">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="I2">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,25 +815,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E3">
-        <v>5398</v>
+        <v>5052</v>
       </c>
       <c r="F3">
-        <v>85048725.39</v>
+        <v>70281640.58</v>
       </c>
       <c r="G3">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
       <c r="H3">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="I3">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,25 +844,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D4">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E4">
-        <v>5044</v>
+        <v>4970</v>
       </c>
       <c r="F4">
-        <v>70229609.49000001</v>
+        <v>70669945.14999999</v>
       </c>
       <c r="G4">
-        <v>63034077.31</v>
+        <v>63217670.8</v>
       </c>
       <c r="H4">
-        <v>2102749.11</v>
+        <v>-1277601.98</v>
       </c>
       <c r="I4">
-        <v>1335913.592</v>
+        <v>-1249775.9792</v>
       </c>
     </row>
   </sheetData>
@@ -900,25 +915,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="D2">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="E2">
-        <v>4465</v>
+        <v>4833</v>
       </c>
       <c r="F2">
-        <v>42539047.94</v>
+        <v>45388555.54000001</v>
       </c>
       <c r="G2">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
       <c r="H2">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="I2">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -929,25 +944,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E3">
-        <v>5398</v>
+        <v>5052</v>
       </c>
       <c r="F3">
-        <v>85048725.39</v>
+        <v>70281640.58</v>
       </c>
       <c r="G3">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
       <c r="H3">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="I3">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -958,25 +973,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D4">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E4">
-        <v>5044</v>
+        <v>4970</v>
       </c>
       <c r="F4">
-        <v>70229609.49000001</v>
+        <v>70669945.14999999</v>
       </c>
       <c r="G4">
-        <v>63034077.31</v>
+        <v>63217670.8</v>
       </c>
       <c r="H4">
-        <v>2102749.11</v>
+        <v>-1277601.98</v>
       </c>
       <c r="I4">
-        <v>1335913.592</v>
+        <v>-1249775.9792</v>
       </c>
     </row>
   </sheetData>
@@ -1014,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>-1676502.54</v>
+        <v>330865.61</v>
       </c>
       <c r="D2">
-        <v>-1790650.1148</v>
+        <v>-78851.16520000005</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1028,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>330865.61</v>
+        <v>-425637.0499999999</v>
       </c>
       <c r="D3">
-        <v>-78851.16520000005</v>
+        <v>-819049.4267999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,10 +1057,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-425637.0499999999</v>
+        <v>1898079.43</v>
       </c>
       <c r="D4">
-        <v>-819049.4267999999</v>
+        <v>1350258.9056</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1056,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1898079.43</v>
+        <v>-61972.53000000003</v>
       </c>
       <c r="D5">
-        <v>1350258.9056</v>
+        <v>-526833.2760000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,10 +1085,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D6">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1084,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D7">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1098,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2102749.11</v>
+        <v>-1277601.98</v>
       </c>
       <c r="D8">
-        <v>1335913.592</v>
+        <v>-1249775.9792</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1112,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>797577.95</v>
+        <v>1689971.38</v>
       </c>
       <c r="D9">
-        <v>360650.5151999998</v>
+        <v>1193091.4624</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1126,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1689971.38</v>
+        <v>1355629.2</v>
       </c>
       <c r="D10">
-        <v>1193091.4624</v>
+        <v>1024836.8764</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1140,10 +1155,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>1355629.2</v>
+        <v>1465508.45</v>
       </c>
       <c r="D11">
-        <v>1024836.8764</v>
+        <v>978364.8547999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1154,10 +1169,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1465508.45</v>
+        <v>865379</v>
       </c>
       <c r="D12">
-        <v>978364.8547999999</v>
+        <v>530732.9375999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1168,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D13">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1182,10 +1197,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D14">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1196,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D15">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1252,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8092743.26</v>
+        <v>8911073.800000001</v>
       </c>
       <c r="D2">
-        <v>3122</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1251,10 +1266,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>8911073.800000001</v>
+        <v>8562704.77</v>
       </c>
       <c r="D3">
-        <v>3313</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1265,10 +1280,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8562704.77</v>
+        <v>9255136.470000001</v>
       </c>
       <c r="D4">
-        <v>3174</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1279,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>9255136.470000001</v>
+        <v>8703393.859999999</v>
       </c>
       <c r="D5">
-        <v>3285</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1293,10 +1308,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D6">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1307,10 +1322,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D7">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1321,10 +1336,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D8">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1335,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7519739.550000001</v>
+        <v>8824615.6</v>
       </c>
       <c r="D9">
-        <v>2795</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1349,10 +1364,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>8824615.6</v>
+        <v>7784083.02</v>
       </c>
       <c r="D10">
-        <v>2939</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1363,10 +1378,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7784083.02</v>
+        <v>7546488.99</v>
       </c>
       <c r="D11">
-        <v>2904</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1377,10 +1392,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7546488.99</v>
+        <v>6488938.75</v>
       </c>
       <c r="D12">
-        <v>3119</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1391,10 +1406,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D13">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1405,10 +1420,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D14">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1419,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D15">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>58018840.53</v>
+        <v>60677874.25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1468,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>60677874.25</v>
+        <v>48803307.53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1479,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>48803307.53</v>
+        <v>108203265.67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1490,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>108203265.67</v>
+        <v>46720706.42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1501,7 +1516,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1512,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1523,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>63034077.31</v>
+        <v>63217670.8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1534,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>41161888.8</v>
+        <v>46286819.34999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1545,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>46286819.34999999</v>
+        <v>37211262.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1556,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>37211262.3</v>
+        <v>36705462.48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1567,7 +1582,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>36705462.48</v>
+        <v>33625066.98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1578,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1589,7 +1604,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1600,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
   </sheetData>
@@ -1641,10 +1656,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>686</v>
+        <v>640</v>
       </c>
       <c r="D2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1658,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="D3">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1675,10 +1690,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="D4">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -1692,13 +1707,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="D5">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1709,13 +1724,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D6">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1726,13 +1741,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D7">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1743,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D8">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1787,10 +1802,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>137692.63</v>
+        <v>144947.94</v>
       </c>
       <c r="D2">
-        <v>325505.68</v>
+        <v>293347.77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1801,10 +1816,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>144947.94</v>
+        <v>189120.67</v>
       </c>
       <c r="D3">
-        <v>293347.77</v>
+        <v>307398.32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1815,10 +1830,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>189120.67</v>
+        <v>123471.91</v>
       </c>
       <c r="D4">
-        <v>307398.32</v>
+        <v>250870.85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1829,10 +1844,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>123471.91</v>
+        <v>254892.05</v>
       </c>
       <c r="D5">
-        <v>250870.85</v>
+        <v>351732.41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1843,10 +1858,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D6">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1857,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D7">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1871,10 +1886,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D8">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1885,10 +1900,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>218829.19</v>
+        <v>125028.88</v>
       </c>
       <c r="D9">
-        <v>201931.07</v>
+        <v>197733.98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1899,10 +1914,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>125028.88</v>
+        <v>130522.19</v>
       </c>
       <c r="D10">
-        <v>197733.98</v>
+        <v>241393.46</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1913,10 +1928,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>130522.19</v>
+        <v>161217.18</v>
       </c>
       <c r="D11">
-        <v>241393.46</v>
+        <v>189340.91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1927,10 +1942,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>161217.18</v>
+        <v>104141.51</v>
       </c>
       <c r="D12">
-        <v>189340.91</v>
+        <v>170479.79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1941,10 +1956,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D13">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1955,10 +1970,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D14">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1969,10 +1984,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D15">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
   </sheetData>
@@ -1990,125 +2005,125 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -2116,13 +2131,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
@@ -2130,55 +2145,55 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
@@ -2186,13 +2201,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>91</v>
@@ -2200,13 +2215,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>92</v>
@@ -2214,91 +2229,91 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -2307,21 +2322,21 @@
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2329,13 +2344,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2343,13 +2358,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2357,13 +2372,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2371,13 +2386,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2385,13 +2400,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2399,13 +2414,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2413,13 +2428,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2437,21 +2452,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
@@ -2460,26 +2475,26 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
@@ -2488,158 +2503,158 @@
         <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
@@ -2647,128 +2662,128 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2776,13 +2791,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2790,13 +2805,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2804,13 +2819,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2821,10 +2836,10 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2835,10 +2850,10 @@
         <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2846,13 +2861,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2860,13 +2875,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2884,16 +2899,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2907,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1499</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2921,7 +2936,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2935,7 +2950,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2949,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2963,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2977,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2991,7 +3006,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3005,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3019,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3033,7 +3048,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3047,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3061,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3075,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3089,7 +3104,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3103,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3117,7 +3132,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3131,7 +3146,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3145,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3159,7 +3174,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3173,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3187,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3201,7 +3216,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3215,7 +3230,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3229,7 +3244,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3243,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3257,7 +3272,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3271,7 +3286,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3285,7 +3300,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>454</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3294,6 +3309,12 @@
       </c>
       <c r="B30">
         <v>129</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,171 +52,171 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
     <t>2025-03-29</t>
   </si>
   <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
   </si>
   <si>
     <t>2025-04-23</t>
   </si>
   <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>65%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>50%</t>
   </si>
   <si>
     <t>49%</t>
   </si>
   <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>51%</t>
   </si>
   <si>
@@ -241,24 +241,24 @@
     <t>59%</t>
   </si>
   <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>32%</t>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>31%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
+    <t>23%</t>
+  </si>
+  <si>
     <t>21%</t>
   </si>
   <si>
-    <t>23%</t>
-  </si>
-  <si>
     <t>24%</t>
   </si>
   <si>
@@ -277,34 +277,40 @@
     <t>28%</t>
   </si>
   <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
     <t>18%</t>
   </si>
   <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
     <t>16%</t>
   </si>
   <si>
-    <t>17%</t>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>13%</t>
   </si>
   <si>
     <t>11%</t>
   </si>
   <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>72%</t>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>7%</t>
   </si>
   <si>
     <t>76%</t>
@@ -331,9 +337,6 @@
     <t>83%</t>
   </si>
   <si>
-    <t>74%</t>
-  </si>
-  <si>
     <t>73%</t>
   </si>
   <si>
@@ -355,25 +358,16 @@
     <t>35%</t>
   </si>
   <si>
-    <t>40%</t>
-  </si>
-  <si>
     <t>42%</t>
   </si>
   <si>
     <t>39%</t>
   </si>
   <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>13%</t>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>29%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -786,25 +780,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="E2">
-        <v>4833</v>
+        <v>4712</v>
       </c>
       <c r="F2">
-        <v>45388555.54000001</v>
+        <v>56453545.12</v>
       </c>
       <c r="G2">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
       <c r="H2">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="I2">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -815,25 +809,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D3">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E3">
-        <v>5052</v>
+        <v>4971</v>
       </c>
       <c r="F3">
-        <v>70281640.58</v>
+        <v>70714624.91</v>
       </c>
       <c r="G3">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
       <c r="H3">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="I3">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -844,25 +838,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D4">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E4">
-        <v>4970</v>
+        <v>4879</v>
       </c>
       <c r="F4">
-        <v>70669945.14999999</v>
+        <v>53112987.14</v>
       </c>
       <c r="G4">
-        <v>63217670.8</v>
+        <v>47365625.53</v>
       </c>
       <c r="H4">
-        <v>-1277601.98</v>
+        <v>310353.8100000001</v>
       </c>
       <c r="I4">
-        <v>-1249775.9792</v>
+        <v>-129928.5663999999</v>
       </c>
     </row>
   </sheetData>
@@ -915,25 +909,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="E2">
-        <v>4833</v>
+        <v>4712</v>
       </c>
       <c r="F2">
-        <v>45388555.54000001</v>
+        <v>56453545.12</v>
       </c>
       <c r="G2">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
       <c r="H2">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="I2">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -944,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D3">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E3">
-        <v>5052</v>
+        <v>4971</v>
       </c>
       <c r="F3">
-        <v>70281640.58</v>
+        <v>70714624.91</v>
       </c>
       <c r="G3">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
       <c r="H3">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="I3">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -973,25 +967,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D4">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E4">
-        <v>4970</v>
+        <v>4879</v>
       </c>
       <c r="F4">
-        <v>70669945.14999999</v>
+        <v>53112987.14</v>
       </c>
       <c r="G4">
-        <v>63217670.8</v>
+        <v>47365625.53</v>
       </c>
       <c r="H4">
-        <v>-1277601.98</v>
+        <v>310353.8100000001</v>
       </c>
       <c r="I4">
-        <v>-1249775.9792</v>
+        <v>-129928.5663999999</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1023,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>330865.61</v>
+        <v>-425637.0499999999</v>
       </c>
       <c r="D2">
-        <v>-78851.16520000005</v>
+        <v>-819049.4267999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1043,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>-425637.0499999999</v>
+        <v>1898079.43</v>
       </c>
       <c r="D3">
-        <v>-819049.4267999999</v>
+        <v>1350258.9056</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1057,10 +1051,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1898079.43</v>
+        <v>-61972.53000000003</v>
       </c>
       <c r="D4">
-        <v>1350258.9056</v>
+        <v>-526833.2760000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1071,10 +1065,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D5">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1085,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D6">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1099,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="D7">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1113,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-1277601.98</v>
+        <v>310353.8100000001</v>
       </c>
       <c r="D8">
-        <v>-1249775.9792</v>
+        <v>-129928.5663999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1127,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1689971.38</v>
+        <v>1355629.2</v>
       </c>
       <c r="D9">
-        <v>1193091.4624</v>
+        <v>1024836.8764</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1141,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1355629.2</v>
+        <v>1465508.45</v>
       </c>
       <c r="D10">
-        <v>1024836.8764</v>
+        <v>978364.8547999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1155,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>1465508.45</v>
+        <v>865379</v>
       </c>
       <c r="D11">
-        <v>978364.8547999999</v>
+        <v>530732.9375999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1169,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D12">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1183,10 +1177,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D13">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1197,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D14">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1211,10 +1205,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="D15">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8911073.800000001</v>
+        <v>8562704.77</v>
       </c>
       <c r="D2">
-        <v>3313</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1266,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>8562704.77</v>
+        <v>9255136.470000001</v>
       </c>
       <c r="D3">
-        <v>3174</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1280,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>9255136.470000001</v>
+        <v>8703393.859999999</v>
       </c>
       <c r="D4">
-        <v>3285</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1294,10 +1288,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D5">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1308,10 +1302,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D6">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1322,10 +1316,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D7">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1336,10 +1330,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8911080</v>
+        <v>7230537.140000001</v>
       </c>
       <c r="D8">
-        <v>3115</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1350,10 +1344,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>8824615.6</v>
+        <v>7784083.02</v>
       </c>
       <c r="D9">
-        <v>2939</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1364,10 +1358,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7784083.02</v>
+        <v>7546488.99</v>
       </c>
       <c r="D10">
-        <v>2904</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1378,10 +1372,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7546488.99</v>
+        <v>6488938.75</v>
       </c>
       <c r="D11">
-        <v>3119</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1392,10 +1386,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D12">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1406,10 +1400,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D13">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1420,10 +1414,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D14">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1434,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>7759976.6</v>
+        <v>8138216.36</v>
       </c>
       <c r="D15">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>60677874.25</v>
+        <v>48803307.53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1483,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>48803307.53</v>
+        <v>108203265.67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1494,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>108203265.67</v>
+        <v>46720706.42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1505,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1516,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1527,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1538,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>63217670.8</v>
+        <v>47365625.53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1549,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>46286819.34999999</v>
+        <v>37211262.3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1560,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>37211262.3</v>
+        <v>36705462.48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1571,7 +1565,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>36705462.48</v>
+        <v>33625066.98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1582,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1593,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1604,7 +1598,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1615,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
     </row>
   </sheetData>
@@ -1656,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="D2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1673,10 +1667,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="D3">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1690,13 +1684,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="D4">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1707,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D5">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1724,10 +1718,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D6">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1741,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D7">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
@@ -1758,10 +1752,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D8">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -1802,10 +1796,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>144947.94</v>
+        <v>189120.67</v>
       </c>
       <c r="D2">
-        <v>293347.77</v>
+        <v>307398.32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1816,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>189120.67</v>
+        <v>123471.91</v>
       </c>
       <c r="D3">
-        <v>307398.32</v>
+        <v>250870.85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1830,10 +1824,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>123471.91</v>
+        <v>254892.05</v>
       </c>
       <c r="D4">
-        <v>250870.85</v>
+        <v>351732.41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1844,10 +1838,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D5">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1858,10 +1852,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D6">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1872,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D7">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1886,10 +1880,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>130409.99</v>
+        <v>159732.76</v>
       </c>
       <c r="D8">
-        <v>443199.21</v>
+        <v>359608.1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1900,10 +1894,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>125028.88</v>
+        <v>130522.19</v>
       </c>
       <c r="D9">
-        <v>197733.98</v>
+        <v>241393.46</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1914,10 +1908,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>130522.19</v>
+        <v>161217.18</v>
       </c>
       <c r="D10">
-        <v>241393.46</v>
+        <v>189340.91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1928,10 +1922,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>161217.18</v>
+        <v>104141.51</v>
       </c>
       <c r="D11">
-        <v>189340.91</v>
+        <v>170479.79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1942,10 +1936,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D12">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1956,10 +1950,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D13">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1970,10 +1964,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D14">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1984,10 +1978,10 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>226137.46</v>
+        <v>149211.51</v>
       </c>
       <c r="D15">
-        <v>178671.18</v>
+        <v>179080.62</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2022,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2042,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2053,10 +2047,10 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2064,13 +2058,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2078,13 +2072,13 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2092,13 +2086,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2106,13 +2100,13 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2120,10 +2114,10 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -2134,13 +2128,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2148,13 +2142,13 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2162,13 +2156,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2176,13 +2170,13 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2190,13 +2184,13 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2204,13 +2198,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2218,13 +2212,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2232,10 +2226,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -2246,10 +2240,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2260,10 +2254,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -2274,10 +2268,10 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
@@ -2288,10 +2282,10 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -2302,10 +2296,10 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -2319,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
         <v>75</v>
@@ -2330,7 +2324,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -2358,7 +2352,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -2372,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -2386,7 +2380,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -2400,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -2469,13 +2463,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2483,10 +2477,10 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
@@ -2497,13 +2491,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2511,13 +2505,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2525,13 +2519,13 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2539,13 +2533,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2553,13 +2547,13 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2570,10 +2564,10 @@
         <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2581,13 +2575,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2595,13 +2589,13 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2609,13 +2603,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2623,13 +2617,13 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2640,10 +2634,10 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2651,13 +2645,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2665,13 +2659,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2679,10 +2673,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
         <v>75</v>
@@ -2693,10 +2687,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2707,10 +2701,10 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -2721,10 +2715,10 @@
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
@@ -2735,10 +2729,10 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -2749,10 +2743,10 @@
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -2763,7 +2757,7 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
@@ -2777,7 +2771,7 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -2791,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -2805,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -2819,7 +2813,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -2833,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -2847,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -2861,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -2899,16 +2893,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2922,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1487</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2936,7 +2930,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2950,7 +2944,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2964,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2978,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2992,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3006,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3020,7 +3014,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3034,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3048,7 +3042,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3062,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3076,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3090,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3104,7 +3098,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3118,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3132,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3146,7 +3140,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3160,7 +3154,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3174,7 +3168,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3188,7 +3182,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3202,7 +3196,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3216,7 +3210,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3230,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3244,7 +3238,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3258,7 +3252,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3272,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3286,7 +3280,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3300,7 +3294,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3314,7 +3308,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>439</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3323,6 +3317,12 @@
       </c>
       <c r="B31">
         <v>141</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,177 +52,180 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
     <t>2025-03-30</t>
   </si>
   <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
   </si>
   <si>
     <t>2025-04-24</t>
   </si>
   <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-03-24</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>51%</t>
   </si>
   <si>
     <t>48%</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
     <t>52%</t>
   </si>
   <si>
@@ -241,133 +244,130 @@
     <t>59%</t>
   </si>
   <si>
-    <t>47%</t>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>35%</t>
   </si>
   <si>
     <t>40%</t>
   </si>
   <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
     <t>42%</t>
   </si>
   <si>
     <t>39%</t>
   </si>
   <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>29%</t>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>32%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -780,25 +780,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D2">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="E2">
-        <v>4712</v>
+        <v>4597</v>
       </c>
       <c r="F2">
-        <v>56453545.12</v>
+        <v>42842429.18</v>
       </c>
       <c r="G2">
-        <v>50047369.64</v>
+        <v>37785041.94</v>
       </c>
       <c r="H2">
-        <v>2356971.66</v>
+        <v>1204803.61</v>
       </c>
       <c r="I2">
-        <v>1779472.4388</v>
+        <v>481665.6355999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -809,25 +809,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D3">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E3">
-        <v>4971</v>
+        <v>4880</v>
       </c>
       <c r="F3">
-        <v>70714624.91</v>
+        <v>53148329.34</v>
       </c>
       <c r="G3">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
       <c r="H3">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="I3">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -838,25 +838,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D4">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E4">
-        <v>4879</v>
+        <v>4899</v>
       </c>
       <c r="F4">
-        <v>53112987.14</v>
+        <v>39452924.48</v>
       </c>
       <c r="G4">
-        <v>47365625.53</v>
+        <v>35512750.29</v>
       </c>
       <c r="H4">
-        <v>310353.8100000001</v>
+        <v>1969376.9</v>
       </c>
       <c r="I4">
-        <v>-129928.5663999999</v>
+        <v>1437529.0028</v>
       </c>
     </row>
   </sheetData>
@@ -909,25 +909,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D2">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="E2">
-        <v>4712</v>
+        <v>4597</v>
       </c>
       <c r="F2">
-        <v>56453545.12</v>
+        <v>42842429.18</v>
       </c>
       <c r="G2">
-        <v>50047369.64</v>
+        <v>37785041.94</v>
       </c>
       <c r="H2">
-        <v>2356971.66</v>
+        <v>1204803.61</v>
       </c>
       <c r="I2">
-        <v>1779472.4388</v>
+        <v>481665.6355999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D3">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E3">
-        <v>4971</v>
+        <v>4880</v>
       </c>
       <c r="F3">
-        <v>70714624.91</v>
+        <v>53148329.34</v>
       </c>
       <c r="G3">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
       <c r="H3">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="I3">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -967,25 +967,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D4">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E4">
-        <v>4879</v>
+        <v>4899</v>
       </c>
       <c r="F4">
-        <v>53112987.14</v>
+        <v>39452924.48</v>
       </c>
       <c r="G4">
-        <v>47365625.53</v>
+        <v>35512750.29</v>
       </c>
       <c r="H4">
-        <v>310353.8100000001</v>
+        <v>1969376.9</v>
       </c>
       <c r="I4">
-        <v>-129928.5663999999</v>
+        <v>1437529.0028</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1023,10 +1023,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>-425637.0499999999</v>
+        <v>1898079.43</v>
       </c>
       <c r="D2">
-        <v>-819049.4267999999</v>
+        <v>1350258.9056</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1037,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1898079.43</v>
+        <v>-61972.53000000003</v>
       </c>
       <c r="D3">
-        <v>1350258.9056</v>
+        <v>-526833.2760000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1051,10 +1051,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D4">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1065,10 +1065,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D5">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1079,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="D6">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1093,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="D7">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1107,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>310353.8100000001</v>
+        <v>1969376.9</v>
       </c>
       <c r="D8">
-        <v>-129928.5663999999</v>
+        <v>1437529.0028</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1121,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1355629.2</v>
+        <v>1465508.45</v>
       </c>
       <c r="D9">
-        <v>1024836.8764</v>
+        <v>978364.8547999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1135,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1465508.45</v>
+        <v>865379</v>
       </c>
       <c r="D10">
-        <v>978364.8547999999</v>
+        <v>530732.9375999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1149,10 +1149,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D11">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1163,10 +1163,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D12">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1177,10 +1177,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D13">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1191,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="D14">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1202,13 +1202,27 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>1733670</v>
+      </c>
+      <c r="D15">
+        <v>1177123.7924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>2356971.66</v>
-      </c>
-      <c r="D15">
-        <v>1779472.4388</v>
+      <c r="C16">
+        <v>1204803.61</v>
+      </c>
+      <c r="D16">
+        <v>481665.6355999999</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1246,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8562704.77</v>
+        <v>9255136.470000001</v>
       </c>
       <c r="D2">
-        <v>3174</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1260,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>9255136.470000001</v>
+        <v>8703393.859999999</v>
       </c>
       <c r="D3">
-        <v>3285</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1274,10 +1288,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D4">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1288,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D5">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1302,10 +1316,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D6">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1316,10 +1330,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8911080</v>
+        <v>7230537.140000001</v>
       </c>
       <c r="D7">
-        <v>3115</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1330,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>7230537.140000001</v>
+        <v>8051806.890000001</v>
       </c>
       <c r="D8">
-        <v>2919</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1344,10 +1358,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7784083.02</v>
+        <v>7546488.99</v>
       </c>
       <c r="D9">
-        <v>2904</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1358,10 +1372,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7546488.99</v>
+        <v>6488938.75</v>
       </c>
       <c r="D10">
-        <v>3119</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1372,10 +1386,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D11">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1386,10 +1400,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D12">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1400,10 +1414,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D13">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1414,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>7759976.6</v>
+        <v>8138216.36</v>
       </c>
       <c r="D14">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1425,13 +1439,27 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>8649479.74</v>
+      </c>
+      <c r="D15">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>8138216.36</v>
-      </c>
-      <c r="D15">
-        <v>2942</v>
+      <c r="C16">
+        <v>8948510.300000001</v>
+      </c>
+      <c r="D16">
+        <v>3012</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,7 +1494,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>48803307.53</v>
+        <v>108203265.67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1477,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>108203265.67</v>
+        <v>46720706.42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1488,7 +1516,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1499,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1510,7 +1538,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1521,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1532,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>47365625.53</v>
+        <v>35512750.29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1543,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>37211262.3</v>
+        <v>36705462.48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1554,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>36705462.48</v>
+        <v>33625066.98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1565,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1576,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1587,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1598,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1606,10 +1634,21 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>55370750.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>50047369.64</v>
+      <c r="C16">
+        <v>37785041.94</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1650,13 +1689,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="D2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1667,13 +1706,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="D3">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1684,13 +1723,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D4">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1701,13 +1740,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D5">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1718,13 +1757,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D6">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1735,13 +1774,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D7">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1752,13 +1791,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D8">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1782,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1796,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>189120.67</v>
+        <v>123471.91</v>
       </c>
       <c r="D2">
-        <v>307398.32</v>
+        <v>250870.85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1810,10 +1849,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>123471.91</v>
+        <v>254892.05</v>
       </c>
       <c r="D3">
-        <v>250870.85</v>
+        <v>351732.41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1824,10 +1863,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D4">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1838,10 +1877,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D5">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1852,10 +1891,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D6">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1866,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>130409.99</v>
+        <v>159732.76</v>
       </c>
       <c r="D7">
-        <v>443199.21</v>
+        <v>359608.1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1880,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>159732.76</v>
+        <v>186908.09</v>
       </c>
       <c r="D8">
-        <v>359608.1</v>
+        <v>241417.72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1894,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>130522.19</v>
+        <v>161217.18</v>
       </c>
       <c r="D9">
-        <v>241393.46</v>
+        <v>189340.91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1908,10 +1947,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>161217.18</v>
+        <v>104141.51</v>
       </c>
       <c r="D10">
-        <v>189340.91</v>
+        <v>170479.79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1922,10 +1961,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D11">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1936,10 +1975,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D12">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1950,10 +1989,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D13">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1964,10 +2003,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>226137.46</v>
+        <v>149211.51</v>
       </c>
       <c r="D14">
-        <v>178671.18</v>
+        <v>179080.62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1975,13 +2014,27 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>147494.34</v>
+      </c>
+      <c r="D15">
+        <v>258472.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>149211.51</v>
-      </c>
-      <c r="D15">
-        <v>179080.62</v>
+      <c r="C16">
+        <v>286262.69</v>
+      </c>
+      <c r="D16">
+        <v>326566.5</v>
       </c>
     </row>
   </sheetData>
@@ -1999,287 +2052,287 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -2288,49 +2341,49 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2338,13 +2391,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2352,13 +2405,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2366,13 +2419,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2380,13 +2433,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2394,13 +2447,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2408,13 +2461,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2422,13 +2475,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2446,91 +2499,91 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>99</v>
@@ -2539,12 +2592,12 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
@@ -2553,15 +2606,15 @@
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -2572,41 +2625,41 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -2614,170 +2667,170 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2785,13 +2838,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2799,13 +2852,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2816,10 +2869,10 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2827,13 +2880,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2841,13 +2894,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2855,13 +2908,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2869,13 +2922,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2938,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2910,13 +2963,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1050</v>
+        <v>1477</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1477</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2924,12 +2977,6 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>579</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
         <v>873</v>
       </c>
     </row>
@@ -2938,12 +2985,6 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>432</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
         <v>606</v>
       </c>
     </row>
@@ -2952,12 +2993,6 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>290</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
         <v>467</v>
       </c>
     </row>
@@ -2966,12 +3001,6 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>238</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
         <v>408</v>
       </c>
     </row>
@@ -2980,12 +3009,6 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>220</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
         <v>338</v>
       </c>
     </row>
@@ -2994,12 +3017,6 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>173</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
         <v>301</v>
       </c>
     </row>
@@ -3008,12 +3025,6 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>157</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
         <v>247</v>
       </c>
     </row>
@@ -3022,12 +3033,6 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>153</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
         <v>242</v>
       </c>
     </row>
@@ -3036,12 +3041,6 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>162</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
         <v>217</v>
       </c>
     </row>
@@ -3050,12 +3049,6 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>137</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
         <v>203</v>
       </c>
     </row>
@@ -3064,12 +3057,6 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>133</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
         <v>199</v>
       </c>
     </row>
@@ -3078,12 +3065,6 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>127</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
         <v>197</v>
       </c>
     </row>
@@ -3092,12 +3073,6 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>124</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
         <v>163</v>
       </c>
     </row>
@@ -3106,231 +3081,127 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>133</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>104</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>119</v>
-      </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>113</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>89</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>91</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>94</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>91</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>97</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>95</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>115</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>114</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>129</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>141</v>
-      </c>
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
         <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,171 +52,168 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
     <t>2025-04-01</t>
   </si>
   <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
   </si>
   <si>
     <t>2025-04-25</t>
   </si>
   <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>49%</t>
   </si>
   <si>
@@ -244,130 +241,139 @@
     <t>59%</t>
   </si>
   <si>
-    <t>45%</t>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>37%</t>
   </si>
   <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>29%</t>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>42%</t>
   </si>
   <si>
     <t>31%</t>
   </si>
   <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>32%</t>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>11%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -780,25 +786,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>789</v>
       </c>
       <c r="D2">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="E2">
-        <v>4597</v>
+        <v>4721</v>
       </c>
       <c r="F2">
-        <v>42842429.18</v>
+        <v>58072524.23</v>
       </c>
       <c r="G2">
-        <v>37785041.94</v>
+        <v>50662133.8</v>
       </c>
       <c r="H2">
-        <v>1204803.61</v>
+        <v>1051591.25</v>
       </c>
       <c r="I2">
-        <v>481665.6355999999</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -809,25 +815,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D3">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E3">
-        <v>4880</v>
+        <v>4902</v>
       </c>
       <c r="F3">
-        <v>53148329.34</v>
+        <v>39509135.52</v>
       </c>
       <c r="G3">
-        <v>47398063.86</v>
+        <v>35563583.64</v>
       </c>
       <c r="H3">
-        <v>298179.2</v>
+        <v>1978411.67</v>
       </c>
       <c r="I3">
-        <v>-140642.2232</v>
+        <v>1445479.6004</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -838,25 +844,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E4">
-        <v>4899</v>
+        <v>4800</v>
       </c>
       <c r="F4">
-        <v>39452924.48</v>
+        <v>38511002.04</v>
       </c>
       <c r="G4">
-        <v>35512750.29</v>
+        <v>34409262.13</v>
       </c>
       <c r="H4">
-        <v>1969376.9</v>
+        <v>84275.38</v>
       </c>
       <c r="I4">
-        <v>1437529.0028</v>
+        <v>-126902.742</v>
       </c>
     </row>
   </sheetData>
@@ -909,25 +915,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>740</v>
+        <v>789</v>
       </c>
       <c r="D2">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="E2">
-        <v>4597</v>
+        <v>4721</v>
       </c>
       <c r="F2">
-        <v>42842429.18</v>
+        <v>58072524.23</v>
       </c>
       <c r="G2">
-        <v>37785041.94</v>
+        <v>50662133.8</v>
       </c>
       <c r="H2">
-        <v>1204803.61</v>
+        <v>1051591.25</v>
       </c>
       <c r="I2">
-        <v>481665.6355999999</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -938,25 +944,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D3">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E3">
-        <v>4880</v>
+        <v>4902</v>
       </c>
       <c r="F3">
-        <v>53148329.34</v>
+        <v>39509135.52</v>
       </c>
       <c r="G3">
-        <v>47398063.86</v>
+        <v>35563583.64</v>
       </c>
       <c r="H3">
-        <v>298179.2</v>
+        <v>1978411.67</v>
       </c>
       <c r="I3">
-        <v>-140642.2232</v>
+        <v>1445479.6004</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -967,25 +973,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D4">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E4">
-        <v>4899</v>
+        <v>4800</v>
       </c>
       <c r="F4">
-        <v>39452924.48</v>
+        <v>38511002.04</v>
       </c>
       <c r="G4">
-        <v>35512750.29</v>
+        <v>34409262.13</v>
       </c>
       <c r="H4">
-        <v>1969376.9</v>
+        <v>84275.38</v>
       </c>
       <c r="I4">
-        <v>1437529.0028</v>
+        <v>-126902.742</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1898079.43</v>
+        <v>-61972.53000000003</v>
       </c>
       <c r="D2">
-        <v>1350258.9056</v>
+        <v>-526833.2760000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1037,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D3">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1051,10 +1057,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D4">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1065,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="D5">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1079,10 +1085,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="D6">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1093,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>298179.2</v>
+        <v>1978411.67</v>
       </c>
       <c r="D7">
-        <v>-140642.2232</v>
+        <v>1445479.6004</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1107,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1969376.9</v>
+        <v>84275.38</v>
       </c>
       <c r="D8">
-        <v>1437529.0028</v>
+        <v>-126902.742</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1121,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1465508.45</v>
+        <v>865379</v>
       </c>
       <c r="D9">
-        <v>978364.8547999999</v>
+        <v>530732.9375999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1135,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D10">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1149,10 +1155,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D11">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1163,10 +1169,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D12">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1177,10 +1183,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="D13">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1191,10 +1197,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>2356971.66</v>
+        <v>1733670</v>
       </c>
       <c r="D14">
-        <v>1779472.4388</v>
+        <v>1177123.7924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1205,10 +1211,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>1733670</v>
+        <v>1204803.61</v>
       </c>
       <c r="D15">
-        <v>1177123.7924</v>
+        <v>481665.6355999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1219,10 +1225,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>1204803.61</v>
+        <v>1051591.25</v>
       </c>
       <c r="D16">
-        <v>481665.6355999999</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
   </sheetData>
@@ -1260,10 +1266,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9255136.470000001</v>
+        <v>8703393.859999999</v>
       </c>
       <c r="D2">
-        <v>3285</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1274,10 +1280,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D3">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1288,10 +1294,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D4">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1302,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D5">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1316,10 +1322,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>8911080</v>
+        <v>7230537.140000001</v>
       </c>
       <c r="D6">
-        <v>3115</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1330,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7230537.140000001</v>
+        <v>8051806.890000001</v>
       </c>
       <c r="D7">
-        <v>2919</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1344,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8051806.890000001</v>
+        <v>6471990.689999999</v>
       </c>
       <c r="D8">
-        <v>3169</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1358,10 +1364,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7546488.99</v>
+        <v>6488938.75</v>
       </c>
       <c r="D9">
-        <v>3119</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1372,10 +1378,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D10">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1386,10 +1392,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D11">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1400,10 +1406,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D12">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1414,10 +1420,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>7759976.6</v>
+        <v>8138216.36</v>
       </c>
       <c r="D13">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1428,10 +1434,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>8138216.36</v>
+        <v>8649479.74</v>
       </c>
       <c r="D14">
-        <v>2942</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1442,10 +1448,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>8649479.74</v>
+        <v>8948510.300000001</v>
       </c>
       <c r="D15">
-        <v>2846</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1456,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>8948510.300000001</v>
+        <v>8863586.01</v>
       </c>
       <c r="D16">
-        <v>3012</v>
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>108203265.67</v>
+        <v>46720706.42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1505,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1516,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1527,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1538,7 +1544,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1549,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>47398063.86</v>
+        <v>35563583.64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1560,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>35512750.29</v>
+        <v>34409262.13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1571,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>36705462.48</v>
+        <v>33625066.98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1582,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1593,7 +1599,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1604,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1615,7 +1621,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1626,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>50047369.64</v>
+        <v>55370750.17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1637,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>55370750.17</v>
+        <v>37785041.94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1648,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>37785041.94</v>
+        <v>50662133.8</v>
       </c>
     </row>
   </sheetData>
@@ -1689,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="D2">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1706,10 +1712,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D3">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1723,10 +1729,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D4">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1740,10 +1746,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D5">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1757,10 +1763,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D6">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1774,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D7">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1791,10 +1797,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D8">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1835,10 +1841,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>123471.91</v>
+        <v>254892.05</v>
       </c>
       <c r="D2">
-        <v>250870.85</v>
+        <v>351732.41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1849,10 +1855,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D3">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1863,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D4">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1877,10 +1883,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D5">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1891,10 +1897,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>130409.99</v>
+        <v>159732.76</v>
       </c>
       <c r="D6">
-        <v>443199.21</v>
+        <v>359608.1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1905,10 +1911,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>159732.76</v>
+        <v>186908.09</v>
       </c>
       <c r="D7">
-        <v>359608.1</v>
+        <v>241417.72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1919,10 +1925,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>186908.09</v>
+        <v>91484.00999999999</v>
       </c>
       <c r="D8">
-        <v>241417.72</v>
+        <v>180025.26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1933,10 +1939,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>161217.18</v>
+        <v>104141.51</v>
       </c>
       <c r="D9">
-        <v>189340.91</v>
+        <v>170479.79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1947,10 +1953,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D10">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1961,10 +1967,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D11">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1975,10 +1981,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D12">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1989,10 +1995,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>226137.46</v>
+        <v>149211.51</v>
       </c>
       <c r="D13">
-        <v>178671.18</v>
+        <v>179080.62</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2003,10 +2009,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>149211.51</v>
+        <v>147494.34</v>
       </c>
       <c r="D14">
-        <v>179080.62</v>
+        <v>258472.37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2017,10 +2023,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>147494.34</v>
+        <v>286262.69</v>
       </c>
       <c r="D15">
-        <v>258472.37</v>
+        <v>326566.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2031,10 +2037,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>286262.69</v>
+        <v>133930.24</v>
       </c>
       <c r="D16">
-        <v>326566.5</v>
+        <v>178567.45</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +2078,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>88</v>
@@ -2086,10 +2092,10 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2100,10 +2106,10 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2111,13 +2117,13 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2125,13 +2131,13 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2139,13 +2145,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2156,10 +2162,10 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2170,10 +2176,10 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2181,13 +2187,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2195,13 +2201,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2209,13 +2215,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2223,10 +2229,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>94</v>
@@ -2237,13 +2243,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2251,13 +2257,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2268,10 +2274,10 @@
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2279,13 +2285,13 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2293,13 +2299,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2307,13 +2313,13 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2321,13 +2327,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2335,13 +2341,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2352,10 +2358,10 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2363,13 +2369,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2377,13 +2383,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2394,10 +2400,10 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2405,13 +2411,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2419,13 +2425,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2433,13 +2439,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2447,13 +2453,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2461,13 +2467,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2475,13 +2481,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2516,13 +2522,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2530,13 +2536,13 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2544,13 +2550,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2558,13 +2564,13 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2572,13 +2578,13 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2586,13 +2592,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2600,13 +2606,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2614,13 +2620,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2628,13 +2634,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2642,13 +2648,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2656,13 +2662,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2670,13 +2676,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2684,13 +2690,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2698,13 +2704,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2712,13 +2718,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2729,10 +2735,10 @@
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2740,13 +2746,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2754,13 +2760,13 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2768,13 +2774,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2782,13 +2788,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2796,13 +2802,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2810,13 +2816,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2824,13 +2830,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2838,13 +2844,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2852,13 +2858,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2866,13 +2872,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2880,13 +2886,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2894,13 +2900,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2908,13 +2914,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2922,13 +2928,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2946,16 +2952,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2969,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4658</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2978,6 +2984,12 @@
       </c>
       <c r="B3">
         <v>873</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3363</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="118">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,328 +52,319 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
     <t>2025-04-02</t>
   </si>
   <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
   </si>
   <si>
     <t>2025-04-26</t>
   </si>
   <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>66%</t>
   </si>
   <si>
     <t>67%</t>
   </si>
   <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>47%</t>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>35%</t>
   </si>
   <si>
     <t>39%</t>
   </si>
   <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>9%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>14%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>6%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>63%</t>
+    <t>31%</t>
   </si>
   <si>
     <t>37%</t>
   </si>
   <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>11%</t>
+    <t>46%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -786,25 +777,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>789</v>
+        <v>659</v>
       </c>
       <c r="D2">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="E2">
-        <v>4721</v>
+        <v>4581</v>
       </c>
       <c r="F2">
-        <v>58072524.23</v>
+        <v>54611933.2</v>
       </c>
       <c r="G2">
-        <v>50662133.8</v>
+        <v>48182983.93</v>
       </c>
       <c r="H2">
-        <v>1051591.25</v>
+        <v>-425057.6199999999</v>
       </c>
       <c r="I2">
-        <v>684367.4188000001</v>
+        <v>-674906.3607999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -815,25 +806,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D3">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E3">
-        <v>4902</v>
+        <v>4800</v>
       </c>
       <c r="F3">
-        <v>39509135.52</v>
+        <v>38545929.75</v>
       </c>
       <c r="G3">
-        <v>35563583.64</v>
+        <v>34433496.93</v>
       </c>
       <c r="H3">
-        <v>1978411.67</v>
+        <v>88342.76000000001</v>
       </c>
       <c r="I3">
-        <v>1445479.6004</v>
+        <v>-123323.4476</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -844,25 +835,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D4">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="E4">
-        <v>4800</v>
+        <v>5131</v>
       </c>
       <c r="F4">
-        <v>38511002.04</v>
+        <v>67779625.79000001</v>
       </c>
       <c r="G4">
-        <v>34409262.13</v>
+        <v>59931791.17999999</v>
       </c>
       <c r="H4">
-        <v>84275.38</v>
+        <v>1336889.76</v>
       </c>
       <c r="I4">
-        <v>-126902.742</v>
+        <v>819785.7228000001</v>
       </c>
     </row>
   </sheetData>
@@ -915,25 +906,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>789</v>
+        <v>659</v>
       </c>
       <c r="D2">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="E2">
-        <v>4721</v>
+        <v>4581</v>
       </c>
       <c r="F2">
-        <v>58072524.23</v>
+        <v>54611933.2</v>
       </c>
       <c r="G2">
-        <v>50662133.8</v>
+        <v>48182983.93</v>
       </c>
       <c r="H2">
-        <v>1051591.25</v>
+        <v>-425057.6199999999</v>
       </c>
       <c r="I2">
-        <v>684367.4188000001</v>
+        <v>-674906.3607999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -944,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D3">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E3">
-        <v>4902</v>
+        <v>4800</v>
       </c>
       <c r="F3">
-        <v>39509135.52</v>
+        <v>38545929.75</v>
       </c>
       <c r="G3">
-        <v>35563583.64</v>
+        <v>34433496.93</v>
       </c>
       <c r="H3">
-        <v>1978411.67</v>
+        <v>88342.76000000001</v>
       </c>
       <c r="I3">
-        <v>1445479.6004</v>
+        <v>-123323.4476</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -973,25 +964,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D4">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="E4">
-        <v>4800</v>
+        <v>5131</v>
       </c>
       <c r="F4">
-        <v>38511002.04</v>
+        <v>67779625.79000001</v>
       </c>
       <c r="G4">
-        <v>34409262.13</v>
+        <v>59931791.17999999</v>
       </c>
       <c r="H4">
-        <v>84275.38</v>
+        <v>1336889.76</v>
       </c>
       <c r="I4">
-        <v>-126902.742</v>
+        <v>819785.7228000001</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1020,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>-61972.53000000003</v>
+        <v>4692812.17</v>
       </c>
       <c r="D2">
-        <v>-526833.2760000001</v>
+        <v>3852820.3804</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1043,10 +1034,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D3">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1057,10 +1048,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="D4">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1071,10 +1062,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="D5">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1085,10 +1076,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>298179.2</v>
+        <v>1978411.67</v>
       </c>
       <c r="D6">
-        <v>-140642.2232</v>
+        <v>1445479.6004</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1099,10 +1090,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1978411.67</v>
+        <v>88342.76000000001</v>
       </c>
       <c r="D7">
-        <v>1445479.6004</v>
+        <v>-123323.4476</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1113,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>84275.38</v>
+        <v>1336889.76</v>
       </c>
       <c r="D8">
-        <v>-126902.742</v>
+        <v>819785.7228000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1127,10 +1118,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>865379</v>
+        <v>748459.73</v>
       </c>
       <c r="D9">
-        <v>530732.9375999999</v>
+        <v>434485.3695999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1141,10 +1132,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D10">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1155,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D11">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1169,10 +1160,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="D12">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1183,10 +1174,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>2356971.66</v>
+        <v>1733670</v>
       </c>
       <c r="D13">
-        <v>1779472.4388</v>
+        <v>1177123.7924</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1197,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>1733670</v>
+        <v>1204803.61</v>
       </c>
       <c r="D14">
-        <v>1177123.7924</v>
+        <v>481665.6355999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1211,10 +1202,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>1204803.61</v>
+        <v>1051591.25</v>
       </c>
       <c r="D15">
-        <v>481665.6355999999</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1225,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>1051591.25</v>
+        <v>-425057.6199999999</v>
       </c>
       <c r="D16">
-        <v>684367.4188000001</v>
+        <v>-674906.3607999999</v>
       </c>
     </row>
   </sheetData>
@@ -1266,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8703393.859999999</v>
+        <v>10065439.4</v>
       </c>
       <c r="D2">
-        <v>3409</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1280,10 +1271,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D3">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1294,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D4">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1308,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>8911080</v>
+        <v>7230537.140000001</v>
       </c>
       <c r="D5">
-        <v>3115</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1322,10 +1313,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>7230537.140000001</v>
+        <v>8051806.890000001</v>
       </c>
       <c r="D6">
-        <v>2919</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1336,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8051806.890000001</v>
+        <v>6471990.689999999</v>
       </c>
       <c r="D7">
-        <v>3169</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1350,10 +1341,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>6471990.689999999</v>
+        <v>8642372.02</v>
       </c>
       <c r="D8">
-        <v>2826</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1364,10 +1355,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>6488938.75</v>
+        <v>7462480.52</v>
       </c>
       <c r="D9">
-        <v>2948</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1378,10 +1369,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D10">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1392,10 +1383,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D11">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1406,10 +1397,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>7759976.6</v>
+        <v>8138216.36</v>
       </c>
       <c r="D12">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1420,10 +1411,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>8138216.36</v>
+        <v>8649479.74</v>
       </c>
       <c r="D13">
-        <v>2942</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1434,10 +1425,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>8649479.74</v>
+        <v>8948510.300000001</v>
       </c>
       <c r="D14">
-        <v>2846</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1448,10 +1439,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>8948510.300000001</v>
+        <v>8863586.01</v>
       </c>
       <c r="D15">
-        <v>3012</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1462,10 +1453,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>8863586.01</v>
+        <v>7171779.560000001</v>
       </c>
       <c r="D16">
-        <v>3032</v>
+        <v>2847</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>46720706.42</v>
+        <v>74949131.90000001</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1511,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1522,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1533,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1544,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>47398063.86</v>
+        <v>35563583.64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1555,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>35563583.64</v>
+        <v>34433496.93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1566,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>34409262.13</v>
+        <v>59931791.17999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1577,7 +1568,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>33625066.98</v>
+        <v>32303584.52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1588,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1599,7 +1590,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1610,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1621,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>50047369.64</v>
+        <v>55370750.17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1632,7 +1623,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>55370750.17</v>
+        <v>37785041.94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1643,7 +1634,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>37785041.94</v>
+        <v>50662133.8</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1654,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>50662133.8</v>
+        <v>48182983.93</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1686,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>601</v>
+        <v>739</v>
       </c>
       <c r="D2">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1712,10 +1703,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1729,10 +1720,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D4">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1746,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D5">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1763,10 +1754,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D6">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1780,10 +1771,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D7">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1797,10 +1788,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D8">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1841,10 +1832,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>254892.05</v>
+        <v>171438.37</v>
       </c>
       <c r="D2">
-        <v>351732.41</v>
+        <v>275994.86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1855,10 +1846,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D3">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1869,10 +1860,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D4">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1883,10 +1874,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>130409.99</v>
+        <v>159732.76</v>
       </c>
       <c r="D5">
-        <v>443199.21</v>
+        <v>359608.1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1897,10 +1888,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>159732.76</v>
+        <v>186908.09</v>
       </c>
       <c r="D6">
-        <v>359608.1</v>
+        <v>241417.72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1911,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>186908.09</v>
+        <v>91484.00999999999</v>
       </c>
       <c r="D7">
-        <v>241417.72</v>
+        <v>180025.26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1925,10 +1916,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>91484.00999999999</v>
+        <v>258253.47</v>
       </c>
       <c r="D8">
-        <v>180025.26</v>
+        <v>192549.52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1939,10 +1930,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>104141.51</v>
+        <v>98989.51999999999</v>
       </c>
       <c r="D9">
-        <v>170479.79</v>
+        <v>161036.66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1953,10 +1944,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D10">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1967,10 +1958,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D11">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1981,10 +1972,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>226137.46</v>
+        <v>149211.51</v>
       </c>
       <c r="D12">
-        <v>178671.18</v>
+        <v>179080.62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1995,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>149211.51</v>
+        <v>147494.34</v>
       </c>
       <c r="D13">
-        <v>179080.62</v>
+        <v>258472.37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2009,10 +2000,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>147494.34</v>
+        <v>286262.69</v>
       </c>
       <c r="D14">
-        <v>258472.37</v>
+        <v>326566.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2023,10 +2014,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>286262.69</v>
+        <v>133930.24</v>
       </c>
       <c r="D15">
-        <v>326566.5</v>
+        <v>178567.45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2037,10 +2028,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>133930.24</v>
+        <v>97528.50999999999</v>
       </c>
       <c r="D16">
-        <v>178567.45</v>
+        <v>270001.19</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2069,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2092,7 +2083,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
@@ -2103,13 +2094,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2117,13 +2108,13 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2131,10 +2122,10 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
@@ -2148,10 +2139,10 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2162,10 +2153,10 @@
         <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2173,13 +2164,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2187,13 +2178,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2201,13 +2192,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2215,13 +2206,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2229,13 +2220,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2243,13 +2234,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2260,10 +2251,10 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2271,13 +2262,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2285,13 +2276,13 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2299,13 +2290,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2313,13 +2304,13 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2327,13 +2318,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2344,10 +2335,10 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2355,13 +2346,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2369,13 +2360,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2383,13 +2374,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2397,13 +2388,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2411,13 +2402,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2425,13 +2416,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2439,13 +2430,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2453,13 +2444,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2467,13 +2458,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2481,13 +2472,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2522,13 +2513,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2536,13 +2527,13 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2550,13 +2541,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2564,10 +2555,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>83</v>
@@ -2581,10 +2572,10 @@
         <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2595,10 +2586,10 @@
         <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2606,13 +2597,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2620,10 +2611,10 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
@@ -2634,13 +2625,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2648,13 +2639,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2662,13 +2653,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2676,13 +2667,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2693,10 +2684,10 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2704,13 +2695,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2718,13 +2709,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2735,10 +2726,10 @@
         <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2746,13 +2737,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2760,13 +2751,13 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2774,13 +2765,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2788,13 +2779,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2802,13 +2793,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2816,13 +2807,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2830,13 +2821,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2847,10 +2838,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2861,10 +2852,10 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2872,13 +2863,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2886,13 +2877,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2903,10 +2894,10 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2914,13 +2905,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2928,13 +2919,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2952,16 +2943,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2975,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2248</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2989,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3363</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2998,6 +2989,12 @@
       </c>
       <c r="B4">
         <v>606</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2851</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="116">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,303 +52,303 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
     <t>2025-04-03</t>
   </si>
   <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
   </si>
   <si>
     <t>2025-04-27</t>
   </si>
   <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>71%</t>
   </si>
   <si>
     <t>60%</t>
   </si>
   <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
     <t>36%</t>
   </si>
   <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>19%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
     <t>38%</t>
   </si>
   <si>
@@ -359,12 +359,6 @@
   </si>
   <si>
     <t>31%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>46%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -777,25 +771,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2">
-        <v>4581</v>
+        <v>4368</v>
       </c>
       <c r="F2">
-        <v>54611933.2</v>
+        <v>55810248.16</v>
       </c>
       <c r="G2">
-        <v>48182983.93</v>
+        <v>49085188.82</v>
       </c>
       <c r="H2">
-        <v>-425057.6199999999</v>
+        <v>143439.53</v>
       </c>
       <c r="I2">
-        <v>-674906.3607999999</v>
+        <v>-187498.6648</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -806,25 +800,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D3">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="E3">
-        <v>4800</v>
+        <v>5137</v>
       </c>
       <c r="F3">
-        <v>38545929.75</v>
+        <v>67784115.19</v>
       </c>
       <c r="G3">
-        <v>34433496.93</v>
+        <v>59941721.65000001</v>
       </c>
       <c r="H3">
-        <v>88342.76000000001</v>
+        <v>1327702.07</v>
       </c>
       <c r="I3">
-        <v>-123323.4476</v>
+        <v>811700.5656000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -835,25 +829,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D4">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="E4">
-        <v>5131</v>
+        <v>4888</v>
       </c>
       <c r="F4">
-        <v>67779625.79000001</v>
+        <v>45780169.96</v>
       </c>
       <c r="G4">
-        <v>59931791.17999999</v>
+        <v>40794384.7</v>
       </c>
       <c r="H4">
-        <v>1336889.76</v>
+        <v>2016291.99</v>
       </c>
       <c r="I4">
-        <v>819785.7228000001</v>
+        <v>1399384.7472</v>
       </c>
     </row>
   </sheetData>
@@ -906,25 +900,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E2">
-        <v>4581</v>
+        <v>4368</v>
       </c>
       <c r="F2">
-        <v>54611933.2</v>
+        <v>55810248.16</v>
       </c>
       <c r="G2">
-        <v>48182983.93</v>
+        <v>49085188.82</v>
       </c>
       <c r="H2">
-        <v>-425057.6199999999</v>
+        <v>143439.53</v>
       </c>
       <c r="I2">
-        <v>-674906.3607999999</v>
+        <v>-187498.6648</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -935,25 +929,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D3">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="E3">
-        <v>4800</v>
+        <v>5137</v>
       </c>
       <c r="F3">
-        <v>38545929.75</v>
+        <v>67784115.19</v>
       </c>
       <c r="G3">
-        <v>34433496.93</v>
+        <v>59941721.65000001</v>
       </c>
       <c r="H3">
-        <v>88342.76000000001</v>
+        <v>1327702.07</v>
       </c>
       <c r="I3">
-        <v>-123323.4476</v>
+        <v>811700.5656000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -964,25 +958,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D4">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="E4">
-        <v>5131</v>
+        <v>4888</v>
       </c>
       <c r="F4">
-        <v>67779625.79000001</v>
+        <v>45780169.96</v>
       </c>
       <c r="G4">
-        <v>59931791.17999999</v>
+        <v>40794384.7</v>
       </c>
       <c r="H4">
-        <v>1336889.76</v>
+        <v>2016291.99</v>
       </c>
       <c r="I4">
-        <v>819785.7228000001</v>
+        <v>1399384.7472</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1014,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>4692812.17</v>
+        <v>1898289.06</v>
       </c>
       <c r="D2">
-        <v>3852820.3804</v>
+        <v>1155988.748</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1034,10 +1028,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1898289.06</v>
+        <v>-1264999.26</v>
       </c>
       <c r="D3">
-        <v>1155988.748</v>
+        <v>-1238685.5856</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1048,10 +1042,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-1264999.26</v>
+        <v>298179.2</v>
       </c>
       <c r="D4">
-        <v>-1238685.5856</v>
+        <v>-140642.2232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1062,10 +1056,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>298179.2</v>
+        <v>1978411.67</v>
       </c>
       <c r="D5">
-        <v>-140642.2232</v>
+        <v>1445479.6004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1076,10 +1070,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>1978411.67</v>
+        <v>88342.76000000001</v>
       </c>
       <c r="D6">
-        <v>1445479.6004</v>
+        <v>-123323.4476</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1090,10 +1084,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>88342.76000000001</v>
+        <v>1327702.07</v>
       </c>
       <c r="D7">
-        <v>-123323.4476</v>
+        <v>811700.5656000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1104,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1336889.76</v>
+        <v>2016291.99</v>
       </c>
       <c r="D8">
-        <v>819785.7228000001</v>
+        <v>1399384.7472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1118,10 +1112,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>748459.73</v>
+        <v>1107483.92</v>
       </c>
       <c r="D9">
-        <v>434485.3695999999</v>
+        <v>727921.1315999997</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1132,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>1107483.92</v>
+        <v>-259246.52</v>
       </c>
       <c r="D10">
-        <v>727921.1315999997</v>
+        <v>-591497.2696</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1146,10 +1140,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-259246.52</v>
+        <v>2356971.66</v>
       </c>
       <c r="D11">
-        <v>-591497.2696</v>
+        <v>1779472.4388</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1160,10 +1154,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>2356971.66</v>
+        <v>1733670</v>
       </c>
       <c r="D12">
-        <v>1779472.4388</v>
+        <v>1177123.7924</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1174,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>1733670</v>
+        <v>1204803.61</v>
       </c>
       <c r="D13">
-        <v>1177123.7924</v>
+        <v>481665.6355999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1188,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>1204803.61</v>
+        <v>1051591.25</v>
       </c>
       <c r="D14">
-        <v>481665.6355999999</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1202,10 +1196,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>1051591.25</v>
+        <v>-425057.6199999999</v>
       </c>
       <c r="D15">
-        <v>684367.4188000001</v>
+        <v>-674906.3607999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1216,10 +1210,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>-425057.6199999999</v>
+        <v>143439.53</v>
       </c>
       <c r="D16">
-        <v>-674906.3607999999</v>
+        <v>-187498.6648</v>
       </c>
     </row>
   </sheetData>
@@ -1257,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10065439.4</v>
+        <v>9327511.140000001</v>
       </c>
       <c r="D2">
-        <v>3349</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1271,10 +1265,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>9327511.140000001</v>
+        <v>8911080</v>
       </c>
       <c r="D3">
-        <v>3198</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1285,10 +1279,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8911080</v>
+        <v>7230537.140000001</v>
       </c>
       <c r="D4">
-        <v>3115</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1299,10 +1293,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>7230537.140000001</v>
+        <v>8051806.890000001</v>
       </c>
       <c r="D5">
-        <v>2919</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1313,10 +1307,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>8051806.890000001</v>
+        <v>6471990.689999999</v>
       </c>
       <c r="D6">
-        <v>3169</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1327,10 +1321,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6471990.689999999</v>
+        <v>8469722.42</v>
       </c>
       <c r="D7">
-        <v>2826</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1341,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8642372.02</v>
+        <v>8369439.359999999</v>
       </c>
       <c r="D8">
-        <v>2873</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1355,10 +1349,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7462480.52</v>
+        <v>7916384.57</v>
       </c>
       <c r="D9">
-        <v>2816</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1369,10 +1363,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7916384.57</v>
+        <v>7759976.6</v>
       </c>
       <c r="D10">
-        <v>2864</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1383,10 +1377,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>7759976.6</v>
+        <v>8138216.36</v>
       </c>
       <c r="D11">
-        <v>2947</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1397,10 +1391,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>8138216.36</v>
+        <v>8649479.74</v>
       </c>
       <c r="D12">
-        <v>2942</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1411,10 +1405,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>8649479.74</v>
+        <v>8948510.300000001</v>
       </c>
       <c r="D13">
-        <v>2846</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1425,10 +1419,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>8948510.300000001</v>
+        <v>8863586.01</v>
       </c>
       <c r="D14">
-        <v>3012</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1439,10 +1433,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>8863586.01</v>
+        <v>7171779.560000001</v>
       </c>
       <c r="D15">
-        <v>3032</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1453,10 +1447,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>7171779.560000001</v>
+        <v>8230404.84</v>
       </c>
       <c r="D16">
-        <v>2847</v>
+        <v>2672</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>74949131.90000001</v>
+        <v>63079734.61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1502,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>63079734.61</v>
+        <v>63260427.62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1513,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>63260427.62</v>
+        <v>47398063.86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1524,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>47398063.86</v>
+        <v>35563583.64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1535,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>35563583.64</v>
+        <v>34433496.93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1546,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>34433496.93</v>
+        <v>59941721.65000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1557,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>59931791.17999999</v>
+        <v>40794384.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1568,7 +1562,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>32303584.52</v>
+        <v>37476784.97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1579,7 +1573,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>37476784.97</v>
+        <v>39616252.48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1590,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>39616252.48</v>
+        <v>50047369.64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1601,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>50047369.64</v>
+        <v>55370750.17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1612,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>55370750.17</v>
+        <v>37785041.94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1623,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>37785041.94</v>
+        <v>50662133.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1634,7 +1628,7 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>50662133.8</v>
+        <v>48182983.93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1645,7 +1639,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>48182983.93</v>
+        <v>49085188.82</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1680,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>739</v>
+        <v>526</v>
       </c>
       <c r="D2">
-        <v>444</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1703,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D3">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1720,10 +1714,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D4">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -1737,10 +1731,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D5">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1754,10 +1748,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>524</v>
+        <v>566</v>
       </c>
       <c r="D6">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1771,10 +1765,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="D7">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -1788,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D8">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1832,10 +1826,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>171438.37</v>
+        <v>142111.57</v>
       </c>
       <c r="D2">
-        <v>275994.86</v>
+        <v>403929.55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1846,10 +1840,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>142111.57</v>
+        <v>130409.99</v>
       </c>
       <c r="D3">
-        <v>403929.55</v>
+        <v>443199.21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1860,10 +1854,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>130409.99</v>
+        <v>159732.76</v>
       </c>
       <c r="D4">
-        <v>443199.21</v>
+        <v>359608.1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1874,10 +1868,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>159732.76</v>
+        <v>186908.09</v>
       </c>
       <c r="D5">
-        <v>359608.1</v>
+        <v>241417.72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1888,10 +1882,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>186908.09</v>
+        <v>91484.00999999999</v>
       </c>
       <c r="D6">
-        <v>241417.72</v>
+        <v>180025.26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1902,10 +1896,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>91484.00999999999</v>
+        <v>258253.46</v>
       </c>
       <c r="D7">
-        <v>180025.26</v>
+        <v>192549.52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1916,10 +1910,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>258253.47</v>
+        <v>131518.97</v>
       </c>
       <c r="D8">
-        <v>192549.52</v>
+        <v>289639.79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1930,10 +1924,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>98989.51999999999</v>
+        <v>119185.42</v>
       </c>
       <c r="D9">
-        <v>161036.66</v>
+        <v>152450.53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1944,10 +1938,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>119185.42</v>
+        <v>226137.46</v>
       </c>
       <c r="D10">
-        <v>152450.53</v>
+        <v>178671.18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1958,10 +1952,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>226137.46</v>
+        <v>149211.51</v>
       </c>
       <c r="D11">
-        <v>178671.18</v>
+        <v>179080.62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1972,10 +1966,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>149211.51</v>
+        <v>147494.34</v>
       </c>
       <c r="D12">
-        <v>179080.62</v>
+        <v>258472.37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1986,10 +1980,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>147494.34</v>
+        <v>286262.69</v>
       </c>
       <c r="D13">
-        <v>258472.37</v>
+        <v>326566.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2000,10 +1994,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>286262.69</v>
+        <v>133930.24</v>
       </c>
       <c r="D14">
-        <v>326566.5</v>
+        <v>178567.45</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2014,10 +2008,10 @@
         <v>23</v>
       </c>
       <c r="C15">
-        <v>133930.24</v>
+        <v>97528.50999999999</v>
       </c>
       <c r="D15">
-        <v>178567.45</v>
+        <v>270001.19</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2028,10 +2022,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>97528.50999999999</v>
+        <v>120724.18</v>
       </c>
       <c r="D16">
-        <v>270001.19</v>
+        <v>241253.22</v>
       </c>
     </row>
   </sheetData>
@@ -2069,10 +2063,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2080,10 +2074,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
@@ -2094,13 +2088,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2108,13 +2102,13 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2122,13 +2116,13 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2136,13 +2130,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2150,13 +2144,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2164,13 +2158,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2178,13 +2172,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2192,13 +2186,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2206,10 +2200,10 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
@@ -2220,10 +2214,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -2234,13 +2228,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2248,10 +2242,10 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
@@ -2262,13 +2256,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2276,13 +2270,13 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2290,13 +2284,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2307,10 +2301,10 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2318,13 +2312,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2332,13 +2326,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2346,13 +2340,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2360,13 +2354,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2374,13 +2368,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2388,13 +2382,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2402,13 +2396,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2419,10 +2413,10 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2433,10 +2427,10 @@
         <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2447,10 +2441,10 @@
         <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2458,13 +2452,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2472,13 +2466,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2513,13 +2507,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2527,13 +2521,13 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2541,13 +2535,13 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2555,10 +2549,10 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>83</v>
@@ -2569,13 +2563,13 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2583,13 +2577,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2597,13 +2591,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2611,13 +2605,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2625,13 +2619,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2642,10 +2636,10 @@
         <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2653,13 +2647,13 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2667,13 +2661,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2684,7 +2678,7 @@
         <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>93</v>
@@ -2695,13 +2689,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2709,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2723,13 +2717,13 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2737,13 +2731,13 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2751,13 +2745,13 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2765,13 +2759,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2779,13 +2773,13 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2793,13 +2787,13 @@
         <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2807,13 +2801,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2821,13 +2815,13 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2835,13 +2829,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2849,13 +2843,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2863,13 +2857,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2877,13 +2871,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2891,13 +2885,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2908,10 +2902,10 @@
         <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2919,13 +2913,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2943,16 +2937,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2966,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1935</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2980,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1505</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2994,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2851</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3003,6 +2997,12 @@
       </c>
       <c r="B5">
         <v>467</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2395</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/2_分析/merged_metrics.xlsx
+++ b/2_分析/merged_metrics.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="117">
   <si>
     <t>站点ID</t>
   </si>
@@ -52,13 +52,148 @@
     <t>公司净收入</t>
   </si>
   <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
     <t>2025-04-04</t>
   </si>
   <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>存款额</t>
+  </si>
+  <si>
+    <t>存款人数</t>
+  </si>
+  <si>
+    <t>转化率</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>返水</t>
+  </si>
+  <si>
+    <t>首存日期</t>
+  </si>
+  <si>
+    <t>第一周留存</t>
+  </si>
+  <si>
+    <t>第二周留存</t>
+  </si>
+  <si>
+    <t>第三周留存</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-18</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
   </si>
   <si>
     <t>2025-04-28</t>
@@ -73,292 +208,160 @@
     <t>2025-05-01</t>
   </si>
   <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-03-29</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>存款额</t>
-  </si>
-  <si>
-    <t>存款人数</t>
-  </si>
-  <si>
-    <t>转化率</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>69%</t>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>71%</t>
   </si>
   <si>
     <t>62%</t>
   </si>
   <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>返水</t>
-  </si>
-  <si>
-    <t>首存日期</t>
-  </si>
-  <si>
-    <t>第一周留存</t>
-  </si>
-  <si>
-    <t>第二周留存</t>
-  </si>
-  <si>
-    <t>第三周留存</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
     <t>40%</t>
   </si>
   <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
     <t>37%</t>
   </si>
   <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>19%</t>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>32%</t>
   </si>
   <si>
     <t>23%</t>
   </si>
   <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
     <t>25%</t>
-  </si>
-  <si>
-    <t>15%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>17%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>31%</t>
   </si>
   <si>
     <t>上月活跃天数</t>
@@ -771,25 +774,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="E2">
-        <v>4368</v>
+        <v>4641</v>
       </c>
       <c r="F2">
-        <v>55810248.16</v>
+        <v>50993272.90000001</v>
       </c>
       <c r="G2">
-        <v>49085188.82</v>
+        <v>44775426.43</v>
       </c>
       <c r="H2">
-        <v>143439.53</v>
+        <v>1919104.95</v>
       </c>
       <c r="I2">
-        <v>-187498.6648</v>
+        <v>-1055887.112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,25 +803,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="D3">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="E3">
-        <v>5137</v>
+        <v>4639</v>
       </c>
       <c r="F3">
-        <v>67784115.19</v>
+        <v>50350328.15000001</v>
       </c>
       <c r="G3">
-        <v>59941721.65000001</v>
+        <v>44003847.09</v>
       </c>
       <c r="H3">
-        <v>1327702.07</v>
+        <v>3429205.83</v>
       </c>
       <c r="I3">
-        <v>811700.5656000001</v>
+        <v>-1402077.6576</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,25 +832,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D4">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E4">
-        <v>4888</v>
+        <v>4542</v>
       </c>
       <c r="F4">
-        <v>45780169.96</v>
+        <v>48037626.26</v>
       </c>
       <c r="G4">
-        <v>40794384.7</v>
+        <v>42776701.78</v>
       </c>
       <c r="H4">
-        <v>2016291.99</v>
+        <v>1938899.55</v>
       </c>
       <c r="I4">
-        <v>1399384.7472</v>
+        <v>-595431.3928</v>
       </c>
     </row>
   </sheetData>
@@ -900,25 +903,25 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="E2">
-        <v>4368</v>
+        <v>4641</v>
       </c>
       <c r="F2">
-        <v>55810248.16</v>
+        <v>50993272.90000001</v>
       </c>
       <c r="G2">
-        <v>49085188.82</v>
+        <v>44775426.43</v>
       </c>
       <c r="H2">
-        <v>143439.53</v>
+        <v>1919104.95</v>
       </c>
       <c r="I2">
-        <v>-187498.6648</v>
+        <v>-1055887.112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -929,25 +932,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="D3">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="E3">
-        <v>5137</v>
+        <v>4639</v>
       </c>
       <c r="F3">
-        <v>67784115.19</v>
+        <v>50350328.15000001</v>
       </c>
       <c r="G3">
-        <v>59941721.65000001</v>
+        <v>44003847.09</v>
       </c>
       <c r="H3">
-        <v>1327702.07</v>
+        <v>3429205.83</v>
       </c>
       <c r="I3">
-        <v>811700.5656000001</v>
+        <v>-1402077.6576</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -958,25 +961,25 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D4">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E4">
-        <v>4888</v>
+        <v>4542</v>
       </c>
       <c r="F4">
-        <v>45780169.96</v>
+        <v>48037626.26</v>
       </c>
       <c r="G4">
-        <v>40794384.7</v>
+        <v>42776701.78</v>
       </c>
       <c r="H4">
-        <v>2016291.99</v>
+        <v>1938899.55</v>
       </c>
       <c r="I4">
-        <v>1399384.7472</v>
+        <v>-595431.3928</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +989,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,10 +1017,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1898289.06</v>
+        <v>88342.76000000001</v>
       </c>
       <c r="D2">
-        <v>1155988.748</v>
+        <v>-123323.4476</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1028,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>-1264999.26</v>
+        <v>1327702.07</v>
       </c>
       <c r="D3">
-        <v>-1238685.5856</v>
+        <v>811700.5656000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1042,10 +1045,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>298179.2</v>
+        <v>2010547.92</v>
       </c>
       <c r="D4">
-        <v>-140642.2232</v>
+        <v>1394329.9656</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1056,10 +1059,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1978411.67</v>
+        <v>667468.17</v>
       </c>
       <c r="D5">
-        <v>1445479.6004</v>
+        <v>322783.5023999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,10 +1073,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>88342.76000000001</v>
+        <v>1631559.01</v>
       </c>
       <c r="D6">
-        <v>-123323.4476</v>
+        <v>1198432.0024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1084,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1327702.07</v>
+        <v>3429205.83</v>
       </c>
       <c r="D7">
-        <v>811700.5656000001</v>
+        <v>-1402077.6576</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1098,10 +1101,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2016291.99</v>
+        <v>1938899.55</v>
       </c>
       <c r="D8">
-        <v>1399384.7472</v>
+        <v>-595431.3928</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1112,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>1107483.92</v>
+        <v>1051591.25</v>
       </c>
       <c r="D9">
-        <v>727921.1315999997</v>
+        <v>684367.4188000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1126,10 +1129,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>-259246.52</v>
+        <v>-425057.6199999999</v>
       </c>
       <c r="D10">
-        <v>-591497.2696</v>
+        <v>-674906.3607999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1140,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>2356971.66</v>
+        <v>143439.53</v>
       </c>
       <c r="D11">
-        <v>1779472.4388</v>
+        <v>-187498.6648</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1154,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1733670</v>
+        <v>-900997.6499999999</v>
       </c>
       <c r="D12">
-        <v>1177123.7924</v>
+        <v>-1179224.0768</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1168,10 +1171,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>1204803.61</v>
+        <v>3252963.15</v>
       </c>
       <c r="D13">
-        <v>481665.6355999999</v>
+        <v>2525246.1776</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1182,10 +1185,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>1051591.25</v>
+        <v>922392.59</v>
       </c>
       <c r="D14">
-        <v>684367.4188000001</v>
+        <v>-3296497.614</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1193,27 +1196,13 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-425057.6199999999</v>
+        <v>1919104.95</v>
       </c>
       <c r="D15">
-        <v>-674906.3607999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>143439.53</v>
-      </c>
-      <c r="D16">
-        <v>-187498.6648</v>
+        <v>-1055887.112</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1237,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1251,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9327511.140000001</v>
+        <v>6471990.689999999</v>
       </c>
       <c r="D2">
-        <v>3198</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1265,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>8911080</v>
+        <v>8469722.42</v>
       </c>
       <c r="D3">
-        <v>3115</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1279,10 +1268,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>7230537.140000001</v>
+        <v>8369439.359999999</v>
       </c>
       <c r="D4">
-        <v>2919</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1293,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>8051806.890000001</v>
+        <v>8017311.930000001</v>
       </c>
       <c r="D5">
-        <v>3169</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1307,10 +1296,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>6471990.689999999</v>
+        <v>8867745.109999999</v>
       </c>
       <c r="D6">
-        <v>2826</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1321,10 +1310,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8469722.42</v>
+        <v>8991101</v>
       </c>
       <c r="D7">
-        <v>2829</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1335,10 +1324,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8369439.359999999</v>
+        <v>9185424.360000001</v>
       </c>
       <c r="D8">
-        <v>2905</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1349,10 +1338,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>7916384.57</v>
+        <v>8863586.01</v>
       </c>
       <c r="D9">
-        <v>2864</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1363,10 +1352,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7759976.6</v>
+        <v>7171779.560000001</v>
       </c>
       <c r="D10">
-        <v>2947</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1377,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>8138216.36</v>
+        <v>8230404.84</v>
       </c>
       <c r="D11">
-        <v>2942</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1391,10 +1380,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>8649479.74</v>
+        <v>10149205.67</v>
       </c>
       <c r="D12">
-        <v>2846</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1405,10 +1394,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>8948510.300000001</v>
+        <v>8891781.43</v>
       </c>
       <c r="D13">
-        <v>3012</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1419,10 +1408,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>8863586.01</v>
+        <v>10143180.54</v>
       </c>
       <c r="D14">
-        <v>3032</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1430,27 +1419,13 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>7171779.560000001</v>
+        <v>8487474.48</v>
       </c>
       <c r="D15">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>8230404.84</v>
-      </c>
-      <c r="D16">
-        <v>2672</v>
+        <v>2894</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>63079734.61</v>
+        <v>34433496.93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1496,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>63260427.62</v>
+        <v>59941721.65000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1507,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>47398063.86</v>
+        <v>40798569.07</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1518,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>35563583.64</v>
+        <v>37366279.34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1529,7 +1504,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>34433496.93</v>
+        <v>43239752.44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1540,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>59941721.65000001</v>
+        <v>44003847.09</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1551,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>40794384.7</v>
+        <v>42776701.78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1562,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>37476784.97</v>
+        <v>50662133.8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1573,7 +1548,7 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>39616252.48</v>
+        <v>48182983.93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1584,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>50047369.64</v>
+        <v>49085188.82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1595,7 +1570,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>55370750.17</v>
+        <v>47055569.84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1606,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>37785041.94</v>
+        <v>67999768.01000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1617,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>50662133.8</v>
+        <v>40252204.51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1625,21 +1600,10 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>48182983.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>49085188.82</v>
+        <v>44775426.43</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1680,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="D2">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1697,13 +1661,13 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="D3">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1714,13 +1678,13 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="D4">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1731,13 +1695,13 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="D5">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1748,13 +1712,13 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="D6">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1765,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>594</v>
+        <v>694</v>
       </c>
       <c r="D7">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1782,13 +1746,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="D8">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1812,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1826,10 +1790,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>142111.57</v>
+        <v>91484.00999999999</v>
       </c>
       <c r="D2">
-        <v>403929.55</v>
+        <v>180025.26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1840,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>130409.99</v>
+        <v>258253.46</v>
       </c>
       <c r="D3">
-        <v>443199.21</v>
+        <v>192549.52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1854,10 +1818,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>159732.76</v>
+        <v>131518.97</v>
       </c>
       <c r="D4">
-        <v>359608.1</v>
+        <v>289639.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1868,10 +1832,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>186908.09</v>
+        <v>107972.54</v>
       </c>
       <c r="D5">
-        <v>241417.72</v>
+        <v>220153.32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1882,10 +1846,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>91484.00999999999</v>
+        <v>107611.2</v>
       </c>
       <c r="D6">
-        <v>180025.26</v>
+        <v>200084.92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1896,10 +1860,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>258253.46</v>
+        <v>104812.56</v>
       </c>
       <c r="D7">
-        <v>192549.52</v>
+        <v>209370.59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1910,10 +1874,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>131518.97</v>
+        <v>134652</v>
       </c>
       <c r="D8">
-        <v>289639.79</v>
+        <v>248641.67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1924,10 +1888,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>119185.42</v>
+        <v>133930.24</v>
       </c>
       <c r="D9">
-        <v>152450.53</v>
+        <v>178567.45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1938,10 +1902,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>226137.46</v>
+        <v>97528.50999999999</v>
       </c>
       <c r="D10">
-        <v>178671.18</v>
+        <v>270001.19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1952,10 +1916,10 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>149211.51</v>
+        <v>120724.18</v>
       </c>
       <c r="D11">
-        <v>179080.62</v>
+        <v>241253.22</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1966,10 +1930,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>147494.34</v>
+        <v>238059.46</v>
       </c>
       <c r="D12">
-        <v>258472.37</v>
+        <v>229205.14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1980,10 +1944,10 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>286262.69</v>
+        <v>130968.37</v>
       </c>
       <c r="D13">
-        <v>326566.5</v>
+        <v>241001.77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1994,10 +1958,10 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>133930.24</v>
+        <v>212184.67</v>
       </c>
       <c r="D14">
-        <v>178567.45</v>
+        <v>316229.92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2005,27 +1969,13 @@
         <v>1000</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>97528.50999999999</v>
+        <v>142008.65</v>
       </c>
       <c r="D15">
-        <v>270001.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>120724.18</v>
-      </c>
-      <c r="D16">
-        <v>241253.22</v>
+        <v>195511.34</v>
       </c>
     </row>
   </sheetData>
@@ -2043,181 +1993,181 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -2225,156 +2175,156 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2382,13 +2332,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2396,13 +2346,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2410,13 +2360,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2424,13 +2374,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2438,13 +2388,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2452,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2466,13 +2416,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2490,338 +2440,338 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2829,13 +2779,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2843,13 +2793,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2857,13 +2807,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2871,13 +2821,13 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2885,13 +2835,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2899,13 +2849,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2913,13 +2863,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2937,16 +2887,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2960,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1827</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2974,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1232</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2988,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1265</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3002,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2395</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3012,6 +2962,12 @@
       <c r="B6">
         <v>408</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>570</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
@@ -3020,6 +2976,12 @@
       <c r="B7">
         <v>338</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>650</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
@@ -3028,6 +2990,12 @@
       <c r="B8">
         <v>301</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>652</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
@@ -3035,6 +3003,12 @@
       </c>
       <c r="B9">
         <v>247</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1490</v>
       </c>
     </row>
     <row r="10" spans="1:4">
